--- a/biology/Botanique/Tiaré_tahiti/Tiaré_tahiti.xlsx
+++ b/biology/Botanique/Tiaré_tahiti/Tiaré_tahiti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tiar%C3%A9_tahiti</t>
+          <t>Tiaré_tahiti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gardenia taitensis
 Le tiare tahiti, littéralement « fleur tahitienne » (nom scientifique, Gardenia taitensis), souvent appelé à tort[réf. nécessaire] « fleur de Tiaré » (pléonasme), est une espèce de petit arbuste au puissant parfum de jasmin, présent dans une grande partie du Pacifique insulaire, jusqu'au Vanuatu. Cet arbuste tropical sempervirent peut atteindre quatre mètres de haut. Ses feuilles à l'aspect vernissé mesurent de 5 à 16 cm ; la fleur est généralement blanche et présente de 5 à 9 pétales arrangés en hélice. Il arrive que certains tiare Tahiti soient jaunes.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tiar%C3%A9_tahiti</t>
+          <t>Tiaré_tahiti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Coutume</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque personne arrivant en Polynésie française se voit traditionnellement remettre un collier de fleurs, composé (exclusivement ou partiellement) de fleurs de Tahiti. Les hôtes, eux, portent la fleur au-dessus de l'oreille (souvent une fleur de Tahiti mais on voit aussi des hibiscus ou autres).   
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tiar%C3%A9_tahiti</t>
+          <t>Tiaré_tahiti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son huile essentielle est riche en principes actifs tels que :
 le salicylate de méthyle dont l’action apaisante est reconnue ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tiar%C3%A9_tahiti</t>
+          <t>Tiaré_tahiti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tiare tahiti, tiare mā’ohi (Tahiti)
 Tiare māori (îles Cook)
